--- a/data/unchecked/manual_collect/china/shanghai/shanghaiCaseStatistics_20200318.xlsx
+++ b/data/unchecked/manual_collect/china/shanghai/shanghaiCaseStatistics_20200318.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STUDY\lab\疫情可视化\每日数据更新\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pthyon文件\COVID-19\data\unchecked\manual_collect\china\shanghai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D918117D-6184-4B38-A45D-DA948D451A74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BAA14AF-8F13-4CEA-BBFF-EC033D7D28A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="新数据表" sheetId="1" r:id="rId1"/>
@@ -11158,53 +11158,53 @@
   <dimension ref="A1:AN29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="X1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AC6" sqref="AC6"/>
+      <selection activeCell="AB1" sqref="AB1:AB1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.921875" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="11.921875" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.921875" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.921875" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.921875" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.07421875" style="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.23046875" style="13" customWidth="1"/>
+    <col min="1" max="1" width="11.90625" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.90625" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.90625" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.90625" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.08984375" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.26953125" style="13" customWidth="1"/>
     <col min="7" max="7" width="12" style="13" customWidth="1"/>
-    <col min="8" max="8" width="6.3828125" style="13" customWidth="1"/>
-    <col min="9" max="9" width="6.84375" style="13" customWidth="1"/>
-    <col min="10" max="10" width="7.84375" style="13" customWidth="1"/>
-    <col min="11" max="11" width="7.921875" style="13" customWidth="1"/>
-    <col min="12" max="12" width="8.15234375" style="13" customWidth="1"/>
-    <col min="13" max="13" width="8.07421875" style="13" customWidth="1"/>
-    <col min="14" max="14" width="5.84375" style="13" customWidth="1"/>
-    <col min="15" max="15" width="6.4609375" style="13" customWidth="1"/>
-    <col min="16" max="16" width="12.4609375" style="13" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="26.61328125" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.36328125" style="13" customWidth="1"/>
+    <col min="9" max="9" width="6.81640625" style="13" customWidth="1"/>
+    <col min="10" max="10" width="7.81640625" style="13" customWidth="1"/>
+    <col min="11" max="11" width="7.90625" style="13" customWidth="1"/>
+    <col min="12" max="12" width="8.1796875" style="13" customWidth="1"/>
+    <col min="13" max="13" width="8.08984375" style="13" customWidth="1"/>
+    <col min="14" max="14" width="5.81640625" style="13" customWidth="1"/>
+    <col min="15" max="15" width="6.453125" style="13" customWidth="1"/>
+    <col min="16" max="16" width="12.453125" style="13" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="26.6328125" style="13" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="7" style="13" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="31.921875" style="15" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="31.90625" style="15" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="18" style="13" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.61328125" style="13" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="31.921875" style="13" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.07421875" style="13" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.6328125" style="13" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="31.90625" style="13" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.08984375" style="13" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="20" style="13" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="31.921875" style="13" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="21.921875" style="13" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="20.921875" style="13" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="25.4609375" style="13" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="31.921875" style="13" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="21.921875" style="13" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="24.4609375" style="13" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="31.90625" style="13" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="21.90625" style="13" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="23.81640625" style="13" customWidth="1"/>
+    <col min="29" max="29" width="25.453125" style="13" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="31.90625" style="13" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="21.90625" style="13" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="24.453125" style="13" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="31" style="13" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="8.921875" style="13" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="31.921875" style="13" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="21.921875" style="13" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="24.4609375" style="13" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="8.90625" style="13" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="31.90625" style="13" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="21.90625" style="13" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="24.453125" style="13" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="31" style="13" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="5.07421875" style="13" bestFit="1" customWidth="1"/>
-    <col min="41" max="16384" width="10.921875" style="13"/>
+    <col min="40" max="40" width="5.08984375" style="13" bestFit="1" customWidth="1"/>
+    <col min="41" max="16384" width="10.90625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="18" customFormat="1">
+    <row r="1" spans="1:40" s="18" customFormat="1" ht="16.2">
       <c r="A1" s="16" t="s">
         <v>3251</v>
       </c>
@@ -11326,7 +11326,7 @@
         <v>3284</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
+    <row r="2" spans="1:40" ht="16.2">
       <c r="A2" s="12">
         <v>1</v>
       </c>
@@ -11394,7 +11394,7 @@
       <c r="AI2" s="15"/>
       <c r="AJ2" s="15"/>
     </row>
-    <row r="3" spans="1:40">
+    <row r="3" spans="1:40" ht="16.2">
       <c r="A3" s="13">
         <v>2</v>
       </c>
@@ -11448,7 +11448,7 @@
       </c>
       <c r="AD3" s="15"/>
     </row>
-    <row r="4" spans="1:40">
+    <row r="4" spans="1:40" ht="16.2">
       <c r="A4" s="12">
         <v>3</v>
       </c>
@@ -11501,7 +11501,7 @@
         <v>3292</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
+    <row r="5" spans="1:40" ht="16.2">
       <c r="A5" s="13">
         <v>4</v>
       </c>
@@ -11554,7 +11554,7 @@
         <v>3292</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
+    <row r="6" spans="1:40" ht="16.2">
       <c r="A6" s="12">
         <v>5</v>
       </c>
@@ -11607,7 +11607,7 @@
         <v>3292</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
+    <row r="7" spans="1:40" ht="16.2">
       <c r="A7" s="13">
         <v>6</v>
       </c>
@@ -11660,7 +11660,7 @@
         <v>3292</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
+    <row r="8" spans="1:40" ht="16.2">
       <c r="A8" s="12">
         <v>7</v>
       </c>
@@ -11713,7 +11713,7 @@
         <v>3292</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
+    <row r="9" spans="1:40" ht="16.2">
       <c r="A9" s="13">
         <v>8</v>
       </c>
@@ -11766,7 +11766,7 @@
         <v>3292</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
+    <row r="10" spans="1:40" ht="16.2">
       <c r="A10" s="12">
         <v>9</v>
       </c>
@@ -11819,7 +11819,7 @@
         <v>3292</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
+    <row r="11" spans="1:40" ht="16.2">
       <c r="A11" s="13">
         <v>10</v>
       </c>
@@ -11872,7 +11872,7 @@
         <v>3292</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
+    <row r="12" spans="1:40" ht="16.2">
       <c r="A12" s="12">
         <v>11</v>
       </c>
@@ -11925,7 +11925,7 @@
         <v>3292</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
+    <row r="13" spans="1:40" ht="16.2">
       <c r="A13" s="13">
         <v>12</v>
       </c>
@@ -11978,7 +11978,7 @@
         <v>3292</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
+    <row r="14" spans="1:40" ht="16.2">
       <c r="A14" s="12">
         <v>13</v>
       </c>
@@ -12031,7 +12031,7 @@
         <v>3292</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
+    <row r="15" spans="1:40" ht="16.2">
       <c r="A15" s="13">
         <v>14</v>
       </c>
@@ -12084,7 +12084,7 @@
         <v>3292</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
+    <row r="16" spans="1:40" ht="16.2">
       <c r="A16" s="12">
         <v>15</v>
       </c>
@@ -12137,7 +12137,7 @@
         <v>3292</v>
       </c>
     </row>
-    <row r="17" spans="1:29">
+    <row r="17" spans="1:29" ht="16.2">
       <c r="A17" s="13">
         <v>16</v>
       </c>
@@ -12190,7 +12190,7 @@
         <v>3292</v>
       </c>
     </row>
-    <row r="18" spans="1:29">
+    <row r="18" spans="1:29" ht="16.2">
       <c r="A18" s="12">
         <v>17</v>
       </c>
@@ -12243,7 +12243,7 @@
         <v>3292</v>
       </c>
     </row>
-    <row r="19" spans="1:29">
+    <row r="19" spans="1:29" ht="16.2">
       <c r="A19" s="13">
         <v>18</v>
       </c>
@@ -12296,7 +12296,7 @@
         <v>3292</v>
       </c>
     </row>
-    <row r="20" spans="1:29">
+    <row r="20" spans="1:29" ht="16.2">
       <c r="A20" s="12">
         <v>19</v>
       </c>
@@ -12346,7 +12346,7 @@
         <v>3292</v>
       </c>
     </row>
-    <row r="21" spans="1:29">
+    <row r="21" spans="1:29" ht="16.2">
       <c r="A21" s="12">
         <v>20</v>
       </c>
@@ -12402,7 +12402,7 @@
         <v>3292</v>
       </c>
     </row>
-    <row r="22" spans="1:29">
+    <row r="22" spans="1:29" ht="16.2">
       <c r="A22" s="12">
         <v>20</v>
       </c>
@@ -12455,7 +12455,7 @@
         <v>3292</v>
       </c>
     </row>
-    <row r="23" spans="1:29">
+    <row r="23" spans="1:29" ht="16.2">
       <c r="A23" s="12">
         <v>21</v>
       </c>
@@ -12508,7 +12508,7 @@
         <v>3292</v>
       </c>
     </row>
-    <row r="24" spans="1:29">
+    <row r="24" spans="1:29" ht="16.2">
       <c r="A24" s="12">
         <v>22</v>
       </c>
@@ -12561,7 +12561,7 @@
         <v>3292</v>
       </c>
     </row>
-    <row r="25" spans="1:29">
+    <row r="25" spans="1:29" ht="16.2">
       <c r="A25" s="12">
         <v>23</v>
       </c>
@@ -12614,7 +12614,7 @@
         <v>3292</v>
       </c>
     </row>
-    <row r="26" spans="1:29">
+    <row r="26" spans="1:29" ht="16.2">
       <c r="A26" s="12">
         <v>24</v>
       </c>
@@ -12670,7 +12670,7 @@
         <v>3292</v>
       </c>
     </row>
-    <row r="27" spans="1:29">
+    <row r="27" spans="1:29" ht="16.2">
       <c r="A27" s="12">
         <v>25</v>
       </c>
@@ -12723,7 +12723,7 @@
         <v>3292</v>
       </c>
     </row>
-    <row r="28" spans="1:29">
+    <row r="28" spans="1:29" ht="16.2">
       <c r="A28" s="12">
         <v>26</v>
       </c>
@@ -12776,7 +12776,7 @@
         <v>3292</v>
       </c>
     </row>
-    <row r="29" spans="1:29">
+    <row r="29" spans="1:29" ht="16.2">
       <c r="A29" s="12">
         <v>27</v>
       </c>
@@ -12913,10 +12913,10 @@
       <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
   <cols>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.4609375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40">

--- a/data/unchecked/manual_collect/china/shanghai/shanghaiCaseStatistics_20200318.xlsx
+++ b/data/unchecked/manual_collect/china/shanghai/shanghaiCaseStatistics_20200318.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pthyon文件\COVID-19\data\unchecked\manual_collect\china\shanghai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BAA14AF-8F13-4CEA-BBFF-EC033D7D28A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1720A054-04CC-4CC7-82E1-346986FE1650}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11157,8 +11157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AB1" sqref="AB1:AB1048576"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6"/>
@@ -11351,7 +11351,9 @@
         <v>2</v>
       </c>
       <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
+      <c r="K2" s="12">
+        <v>1</v>
+      </c>
       <c r="L2" s="12"/>
       <c r="M2" s="12">
         <v>363</v>
@@ -12371,6 +12373,9 @@
       <c r="I21" s="13">
         <v>2</v>
       </c>
+      <c r="J21" s="13">
+        <v>1</v>
+      </c>
       <c r="M21" s="13">
         <v>25</v>
       </c>
@@ -12638,6 +12643,9 @@
       </c>
       <c r="H26" s="13" t="s">
         <v>3314</v>
+      </c>
+      <c r="J26" s="13">
+        <v>1</v>
       </c>
       <c r="M26" s="13">
         <v>4</v>

--- a/data/unchecked/manual_collect/china/shanghai/shanghaiCaseStatistics_20200318.xlsx
+++ b/data/unchecked/manual_collect/china/shanghai/shanghaiCaseStatistics_20200318.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pthyon文件\COVID-19\data\unchecked\manual_collect\china\shanghai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1720A054-04CC-4CC7-82E1-346986FE1650}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9835291F-9DE4-48F2-B9BC-DC57F766E05B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11158,7 +11158,7 @@
   <dimension ref="A1:AN29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6"/>
@@ -12373,7 +12373,7 @@
       <c r="I21" s="13">
         <v>2</v>
       </c>
-      <c r="J21" s="13">
+      <c r="K21" s="13">
         <v>1</v>
       </c>
       <c r="M21" s="13">
@@ -12644,7 +12644,7 @@
       <c r="H26" s="13" t="s">
         <v>3314</v>
       </c>
-      <c r="J26" s="13">
+      <c r="K26" s="13">
         <v>1</v>
       </c>
       <c r="M26" s="13">
